--- a/biology/Botanique/Tillandsia_diguetii/Tillandsia_diguetii.xlsx
+++ b/biology/Botanique/Tillandsia_diguetii/Tillandsia_diguetii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia diguetii Mez &amp; Rol.-Goss. ex Mez est une plante de la famille des Bromeliaceae.
 Le terme diguetii est une dédicace au botaniste français Léon Diguet (1859-1926), collecteur de la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia diguetii Mez &amp; Rol.-Goss. ex Mez, in Repert. Spec. Nov. Regni Veg. 14: 250 (1916)
-Diagnose originale[1] :
+Diagnose originale :
 « Foliis permanifest[e] bulbose rosulatis, utrinque lepidibus densissime dispositis obtectis canisque; inflorescentia densissime 2-pinnatim panniculata[sic] breviter capituliformi, scapo nullo inter folia intima sessili; bracteis primariis foliaceis omnibus spicas axillares superantibus; spicis flabellatis, sessilibus, 2(-3)-floris; bracteis florigeris laxiuscule sibi incumbentibus, dorso dense lepidotis, sepala superantibus; floribus erectis; sepalis lepidotis, antico libero posticis altiuscule connatis; petalis cum staminibus adhuc ignotis. »
-Type : leg. Diguet ; « Mexico occidentalis, prope Manzanillo » ; herb. Mez[1].
+Type : leg. Diguet ; « Mexico occidentalis, prope Manzanillo » ; herb. Mez.
 leg. Diguet ; « Mexico occidentalis, prope Manzanillo » ; herb. Mez.
 leg. Diguet, s.n. ; « Mexico bei Manzanillo » ; Holotypus B (B 10 0144791)
 leg. Diguet, s.n. ; « Mexico bei Manzanillo » ; Isotypus B (B 10 0144790)</t>
@@ -548,7 +562,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,7 +622,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux.
 Habitat :
@@ -636,12 +656,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
  Mexique
-Ouest du Mexique[1]
-Colima[2]</t>
+Ouest du Mexique
+Colima</t>
         </is>
       </c>
     </row>
@@ -669,9 +691,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia diguetii est une plante très rare en culture[2] et donc mal connue de ce point de vue.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia diguetii est une plante très rare en culture et donc mal connue de ce point de vue.
 </t>
         </is>
       </c>
